--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2015269.346525133</v>
+        <v>2119448.980976204</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283178</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -677,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>47.22593971364915</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>233.1592965985626</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414544</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.787168396927</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -829,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>106.4735778903234</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>251.1382003403121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -899,22 +901,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>50.73003670622337</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>271.9188307532925</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1069,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>20.95866062610894</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1105,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>121.4856996582645</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1151,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>92.47445699814261</v>
+        <v>226.0299399030541</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,13 +1293,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>26.7337002262894</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,10 +1308,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>148.3144404684711</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1379,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1525,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>20.25102067617261</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1585,13 +1587,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1616,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1667,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174145</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1765,16 +1767,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1825,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>172.3645574474254</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634816</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1907,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784699</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1999,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>57.02356321678175</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2014,13 +2016,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>87.20901510507026</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2242,10 +2244,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2257,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
-        <v>122.8199531272488</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>174.7683347992599</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2330,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>101.9154861872847</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428207</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2615,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2728,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>41.02686156550273</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>137.9792024346624</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2840,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2858,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="30">
@@ -2950,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2965,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>26.1362719570587</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>61.97958965902472</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3044,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3092,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3184,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>122.6028762599955</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>100.988480008087</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3244,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3275,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>143.9002723490402</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>70.04554881124335</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3506,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3664,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>73.78417491007316</v>
       </c>
       <c r="F40" t="n">
-        <v>53.3007612348484</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>59.45282559760549</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3907,13 +3909,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>107.4021082756248</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3989,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>23.1099832571722</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>18.16423677622388</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1986.901740067214</v>
+        <v>1986.901740067215</v>
       </c>
       <c r="C2" t="n">
         <v>1617.939223126803</v>
@@ -4313,10 +4315,10 @@
         <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>821.1650657389511</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4325,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.7846764101</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2961.7846764101</v>
       </c>
       <c r="W2" t="n">
-        <v>2377.041072043026</v>
+        <v>2609.016021139986</v>
       </c>
       <c r="X2" t="n">
-        <v>2377.041072043026</v>
+        <v>2609.016021139986</v>
       </c>
       <c r="Y2" t="n">
-        <v>1986.901740067214</v>
+        <v>2373.501580131337</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.573581468607</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064745</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080125</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.5121164321834</v>
+        <v>417.6040489720644</v>
       </c>
       <c r="C4" t="n">
-        <v>66.5121164321834</v>
+        <v>417.6040489720644</v>
       </c>
       <c r="D4" t="n">
-        <v>66.5121164321834</v>
+        <v>417.6040489720644</v>
       </c>
       <c r="E4" t="n">
-        <v>66.5121164321834</v>
+        <v>417.6040489720644</v>
       </c>
       <c r="F4" t="n">
-        <v>66.5121164321834</v>
+        <v>417.6040489720644</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962279</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757129</v>
+        <v>831.0565485757121</v>
       </c>
       <c r="S4" t="n">
-        <v>831.0565485757129</v>
+        <v>639.3706644025384</v>
       </c>
       <c r="T4" t="n">
-        <v>609.2899331452389</v>
+        <v>417.6040489720644</v>
       </c>
       <c r="U4" t="n">
-        <v>320.1870662708825</v>
+        <v>417.6040489720644</v>
       </c>
       <c r="V4" t="n">
-        <v>320.1870662708825</v>
+        <v>417.6040489720644</v>
       </c>
       <c r="W4" t="n">
-        <v>66.5121164321834</v>
+        <v>417.6040489720644</v>
       </c>
       <c r="X4" t="n">
-        <v>66.5121164321834</v>
+        <v>417.6040489720644</v>
       </c>
       <c r="Y4" t="n">
-        <v>66.5121164321834</v>
+        <v>417.6040489720644</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2038.144201386632</v>
+        <v>1918.208919851714</v>
       </c>
       <c r="C5" t="n">
-        <v>1669.18168444622</v>
+        <v>1549.246402911303</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1190.980704304552</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>805.192451706308</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>798.2469509571046</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>383.174500802101</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450754</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="X5" t="n">
-        <v>2424.744041450754</v>
+        <v>2304.808759915836</v>
       </c>
       <c r="Y5" t="n">
-        <v>2424.744041450754</v>
+        <v>2304.808759915836</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811077</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999807</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387296</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.918960533274</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601591</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4674,16 +4676,16 @@
         <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X6" t="n">
         <v>1317.51949026613</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.51211643218342</v>
+        <v>87.68248070098031</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218342</v>
+        <v>87.68248070098031</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218342</v>
+        <v>87.68248070098031</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>87.68248070098031</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>87.68248070098031</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>87.68248070098031</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962279</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="T7" t="n">
-        <v>699.1203903877109</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="U7" t="n">
-        <v>410.0175235133545</v>
+        <v>631.7841389438278</v>
       </c>
       <c r="V7" t="n">
-        <v>287.3046955757135</v>
+        <v>377.0996507379409</v>
       </c>
       <c r="W7" t="n">
-        <v>287.3046955757135</v>
+        <v>87.68248070098031</v>
       </c>
       <c r="X7" t="n">
-        <v>287.3046955757135</v>
+        <v>87.68248070098031</v>
       </c>
       <c r="Y7" t="n">
-        <v>66.51211643218342</v>
+        <v>87.68248070098031</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912086</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
         <v>3325.60582160917</v>
@@ -4838,16 +4840,16 @@
         <v>3215.315153136265</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136265</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W8" t="n">
-        <v>3215.315153136265</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X8" t="n">
-        <v>3121.906610713899</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>2303.170539913434</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556937</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609103</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635988</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686066</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064741</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>827.064395508012</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986293</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>1159.005863978976</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>1525.704024291641</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513957</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068411</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486466</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962568</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695165</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507436</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547492</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341959</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577005</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>576.372060369826</v>
+        <v>481.6572696514548</v>
       </c>
       <c r="C10" t="n">
-        <v>407.4358774419192</v>
+        <v>481.6572696514548</v>
       </c>
       <c r="D10" t="n">
-        <v>407.4358774419192</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="E10" t="n">
-        <v>380.4321398396066</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962279</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="S10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="T10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="U10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="V10" t="n">
-        <v>576.372060369826</v>
+        <v>771.0744396884154</v>
       </c>
       <c r="W10" t="n">
-        <v>576.372060369826</v>
+        <v>481.6572696514548</v>
       </c>
       <c r="X10" t="n">
-        <v>576.372060369826</v>
+        <v>481.6572696514548</v>
       </c>
       <c r="Y10" t="n">
-        <v>576.372060369826</v>
+        <v>481.6572696514548</v>
       </c>
     </row>
     <row r="11">
@@ -5021,28 +5023,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5121,22 +5123,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M12" t="n">
-        <v>840.8417932021785</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N12" t="n">
-        <v>1468.439756756785</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O12" t="n">
-        <v>2020.349486996072</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2443.97263649114</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>950.1865537761979</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5233,16 +5235,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="14">
@@ -5255,70 +5257,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111739</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075831</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M15" t="n">
-        <v>738.7889117913853</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N15" t="n">
-        <v>1366.386875345992</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>1918.296605585279</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2341.919755080347</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
         <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5458,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5507,16 +5509,16 @@
         <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
@@ -5555,10 +5557,10 @@
         <v>3467.98095685289</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="18">
@@ -5589,22 +5591,22 @@
         <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797191</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468472</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468472</v>
+        <v>634.560372056552</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438171</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
         <v>1859.536823237711</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>680.448174698413</v>
+        <v>695.5020655703119</v>
       </c>
       <c r="C19" t="n">
-        <v>680.448174698413</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="D19" t="n">
-        <v>530.3315352860773</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036842</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797191</v>
@@ -5680,7 +5682,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
@@ -5689,13 +5691,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
         <v>2197.062545487568</v>
@@ -5707,16 +5709,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1600.295939607161</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1310.8787695702</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1082.889218672183</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y19" t="n">
-        <v>862.0966395286528</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,28 +5740,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
@@ -5768,22 +5770,22 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5823,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468472</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L21" t="n">
         <v>1072.713683962606</v>
@@ -5841,13 +5843,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>800.6374272687975</v>
+        <v>3342.53722908186</v>
       </c>
       <c r="C22" t="n">
-        <v>631.7012443408906</v>
+        <v>3173.601046153953</v>
       </c>
       <c r="D22" t="n">
-        <v>631.7012443408906</v>
+        <v>3023.484406741617</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>2875.571313159224</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>2728.681365661314</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>2561.485266376194</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218392</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797193</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038396</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797799</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910815</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570823</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279808</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853367</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580266</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832669</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="S22" t="n">
-        <v>2255.856821118276</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="T22" t="n">
-        <v>2036.255356141217</v>
+        <v>4404.185983673938</v>
       </c>
       <c r="U22" t="n">
-        <v>1747.180129485415</v>
+        <v>4227.652312159534</v>
       </c>
       <c r="V22" t="n">
-        <v>1492.495641279528</v>
+        <v>3972.967823953647</v>
       </c>
       <c r="W22" t="n">
-        <v>1203.078471242567</v>
+        <v>3972.967823953647</v>
       </c>
       <c r="X22" t="n">
-        <v>1203.078471242567</v>
+        <v>3744.978273055629</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.2858920990373</v>
+        <v>3524.185693912099</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,61 +5977,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,22 +6062,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468472</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N24" t="n">
         <v>1964.511902868375</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>2978.516248701936</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>2978.516248701936</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>2875.571313159224</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>2875.571313159224</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>2728.681365661314</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>2561.485266376194</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797193</v>
+        <v>2419.773435218392</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797193</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>4440.932614305901</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>4221.331149328842</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>3932.25592267304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>3677.571434467153</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>3388.154264430193</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>3160.164713532175</v>
       </c>
     </row>
     <row r="26">
@@ -6218,16 +6220,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332388</v>
@@ -6239,16 +6241,16 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6260,7 +6262,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
         <v>3467.980956852889</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
@@ -6312,19 +6314,19 @@
         <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>738.7889117913853</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N27" t="n">
-        <v>1366.386875345992</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O27" t="n">
-        <v>1918.296605585279</v>
+        <v>1888.077129657224</v>
       </c>
       <c r="P27" t="n">
-        <v>2341.919755080347</v>
+        <v>2311.700279152292</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2544.961939527175</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3118.738694571971</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>2949.802511644064</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>2799.685872231729</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>2651.772778649336</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>2504.882831151425</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>2337.686731866305</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866305</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650996</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>4623.787448650996</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>4582.346174342408</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U28" t="n">
-        <v>4293.270947686606</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V28" t="n">
-        <v>4038.586459480719</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W28" t="n">
-        <v>3749.169289443758</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>3521.179738545741</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>3300.387159402211</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6455,55 +6457,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.852361107581</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M30" t="n">
-        <v>840.8417932021785</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N30" t="n">
-        <v>1468.439756756785</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O30" t="n">
-        <v>2020.349486996072</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P30" t="n">
-        <v>2443.97263649114</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2546.729326731942</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>983.3556038098242</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C31" t="n">
-        <v>814.4194208819173</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D31" t="n">
-        <v>664.3027814695815</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>516.3896878871884</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>369.499740389278</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>202.303641104158</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1903.203368718572</v>
+        <v>1625.780207734479</v>
       </c>
       <c r="W31" t="n">
-        <v>1613.786198681611</v>
+        <v>1336.363037697518</v>
       </c>
       <c r="X31" t="n">
-        <v>1385.796647783594</v>
+        <v>1108.373486799501</v>
       </c>
       <c r="Y31" t="n">
-        <v>1165.004068640064</v>
+        <v>887.5809076559709</v>
       </c>
     </row>
     <row r="32">
@@ -6680,28 +6682,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,10 +6712,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6740,7 +6742,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>3093.254426444652</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>2924.318243516745</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>2774.20160410441</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>2626.288510522017</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>4521.778882986261</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>4302.177418009202</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>4013.1021913534</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>4013.1021913534</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>3723.68502131644</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>3495.695470418422</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>3274.902891274892</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6932,52 +6934,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C36" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D36" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>2592.376702893873</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>3087.702309109632</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>3087.702309109632</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>3715.300272664238</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>4267.210002903525</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R36" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S36" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T36" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U36" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V36" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W36" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X36" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y36" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>551.354624631591</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C37" t="n">
-        <v>382.4184417036842</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D37" t="n">
-        <v>382.4184417036842</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E37" t="n">
-        <v>382.4184417036842</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2234.563569379087</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2014.962104402028</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="U37" t="n">
-        <v>1725.886877746226</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V37" t="n">
-        <v>1471.202389540339</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W37" t="n">
-        <v>1181.785219503378</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X37" t="n">
-        <v>953.7956686053609</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y37" t="n">
-        <v>733.0030894618308</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="38">
@@ -7169,31 +7171,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7251,25 +7253,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637307</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>696.7084350851671</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C40" t="n">
-        <v>527.7722521572603</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D40" t="n">
-        <v>377.6556127449245</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="E40" t="n">
-        <v>229.7425191625314</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F40" t="n">
-        <v>175.9033664000582</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V40" t="n">
-        <v>1616.556199993915</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W40" t="n">
-        <v>1327.139029956954</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X40" t="n">
-        <v>1099.149479058937</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y40" t="n">
-        <v>878.3568999154069</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="41">
@@ -7385,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7494,19 +7496,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M42" t="n">
-        <v>1072.713683962606</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N42" t="n">
-        <v>1700.311647517213</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O42" t="n">
-        <v>2252.2213777565</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3118.73869457197</v>
+        <v>2946.364478946742</v>
       </c>
       <c r="C43" t="n">
-        <v>2949.802511644064</v>
+        <v>2777.428296018835</v>
       </c>
       <c r="D43" t="n">
-        <v>2799.685872231728</v>
+        <v>2627.3116566065</v>
       </c>
       <c r="E43" t="n">
-        <v>2651.772778649335</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="F43" t="n">
-        <v>2504.882831151424</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="G43" t="n">
-        <v>2337.686731866304</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H43" t="n">
         <v>2337.686731866304</v>
@@ -7594,25 +7596,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S43" t="n">
-        <v>4690.833152398593</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T43" t="n">
-        <v>4582.346174342407</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="U43" t="n">
-        <v>4293.270947686605</v>
+        <v>3999.301626420637</v>
       </c>
       <c r="V43" t="n">
-        <v>4038.586459480718</v>
+        <v>3744.61713821475</v>
       </c>
       <c r="W43" t="n">
-        <v>3749.169289443757</v>
+        <v>3455.19996817779</v>
       </c>
       <c r="X43" t="n">
-        <v>3521.17973854574</v>
+        <v>3227.210417279773</v>
       </c>
       <c r="Y43" t="n">
-        <v>3300.38715940221</v>
+        <v>3006.417838136243</v>
       </c>
     </row>
     <row r="44">
@@ -7628,34 +7630,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355936</v>
@@ -7722,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876693</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597624</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1959.113366595131</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1704.428878389244</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1415.011708352283</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614391</v>
+        <v>1187.022157454266</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.547769317909</v>
+        <v>966.2295783107356</v>
       </c>
     </row>
   </sheetData>
@@ -23413,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>146.9958004224552</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,16 +23655,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>117.6820817884491</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>110.2232578818461</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>164.9286282187578</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24130,10 +24132,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24175,22 +24177,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>58.20633287439577</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>111.4161395899842</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>46.69998683092763</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194179</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>176.3785887617855</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24838,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>114.1584408891651</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>190.1580536648033</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>80.03780599355764</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,13 +25362,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>37.12601365260437</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>147.3599015160449</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25552,16 +25554,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>72.64978773649601</v>
       </c>
       <c r="F40" t="n">
-        <v>92.12028678808284</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25597,10 +25599,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>120.3791545843318</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25795,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>110.0033420516635</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>125.5054897610402</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>268.0202376130202</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>841963.9198425519</v>
+        <v>841963.9198425522</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>841963.9198425522</v>
+        <v>841963.919842552</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>841963.9198425519</v>
+        <v>841963.919842552</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>841963.919842552</v>
+        <v>841963.9198425522</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>841963.9198425522</v>
+        <v>841963.9198425519</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>841963.9198425519</v>
+        <v>841963.919842552</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>841963.9198425519</v>
+        <v>841963.919842552</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>841963.919842552</v>
+        <v>841963.9198425519</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>841963.9198425519</v>
+        <v>841963.919842552</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516051</v>
+        <v>595255.2831516053</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516055</v>
+        <v>595255.2831516052</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516055</v>
+        <v>595255.2831516056</v>
       </c>
       <c r="E2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="F2" t="n">
         <v>585181.2847752544</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>585181.2847752541</v>
+      </c>
+      <c r="H2" t="n">
+        <v>585181.2847752541</v>
+      </c>
+      <c r="I2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="J2" t="n">
         <v>585181.2847752543</v>
-      </c>
-      <c r="G2" t="n">
-        <v>585181.2847752543</v>
-      </c>
-      <c r="H2" t="n">
-        <v>585181.2847752542</v>
-      </c>
-      <c r="I2" t="n">
-        <v>585181.2847752545</v>
-      </c>
-      <c r="J2" t="n">
-        <v>585181.2847752544</v>
       </c>
       <c r="K2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="L2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="M2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="N2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="O2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752544</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4.781995812663809e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.094354047381785e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,37 +26417,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.7441040527</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.7441040526</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405259</v>
+        <v>93596.74410405263</v>
       </c>
       <c r="E4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.6400068796</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="G4" t="n">
-        <v>15436.64000687963</v>
+        <v>15436.64000687962</v>
       </c>
       <c r="H4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="I4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
-        <v>15436.64000687962</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="K4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687973</v>
       </c>
       <c r="L4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="M4" t="n">
         <v>15436.64000687967</v>
@@ -26454,10 +26456,10 @@
         <v>15436.64000687967</v>
       </c>
       <c r="O4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="P4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
     </row>
     <row r="5">
@@ -26482,7 +26484,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-935020.1472414334</v>
+        <v>-935020.1472414326</v>
       </c>
       <c r="C6" t="n">
+        <v>393724.5984861593</v>
+      </c>
+      <c r="D6" t="n">
         <v>393724.5984861597</v>
       </c>
-      <c r="D6" t="n">
-        <v>393724.5984861596</v>
-      </c>
       <c r="E6" t="n">
-        <v>143209.6531371124</v>
+        <v>143209.6531371119</v>
       </c>
       <c r="F6" t="n">
         <v>468622.1149444676</v>
       </c>
       <c r="G6" t="n">
-        <v>468622.1149444676</v>
+        <v>468622.1149444669</v>
       </c>
       <c r="H6" t="n">
-        <v>468622.1149444674</v>
+        <v>468622.1149444673</v>
       </c>
       <c r="I6" t="n">
-        <v>468622.1149444677</v>
+        <v>468622.114944468</v>
       </c>
       <c r="J6" t="n">
-        <v>251090.9125471904</v>
+        <v>251090.9125471902</v>
       </c>
       <c r="K6" t="n">
         <v>468622.1149444677</v>
       </c>
       <c r="L6" t="n">
-        <v>468622.1149444674</v>
+        <v>468622.1149444675</v>
       </c>
       <c r="M6" t="n">
         <v>383567.0870089557</v>
       </c>
       <c r="N6" t="n">
+        <v>468622.1149444676</v>
+      </c>
+      <c r="O6" t="n">
         <v>468622.1149444674</v>
       </c>
-      <c r="O6" t="n">
-        <v>468622.1149444678</v>
-      </c>
       <c r="P6" t="n">
-        <v>468622.1149444674</v>
+        <v>468622.1149444676</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099649</v>
@@ -26811,16 +26813,16 @@
         <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26966,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022921</v>
+        <v>831.401455402292</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27430,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>302.0150290037639</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>153.078642057491</v>
       </c>
     </row>
     <row r="3">
@@ -27512,7 +27514,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.591615728102624e-12</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27549,13 +27551,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>59.55223036870487</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,19 +27587,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>35.38479799627891</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27619,19 +27621,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>303.9530049144596</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>22.68893363402805</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,7 +27672,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27789,10 +27791,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>123.7963542882118</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>130.6519436655635</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>277.2566436803264</v>
+        <v>143.7011607754149</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,13 +28013,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>119.7002624202798</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28068,10 +28070,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>103.8232028553569</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28561,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-1.023181539494544e-12</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -29578,7 +29580,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="30">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353155</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987504</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31841,10 +31843,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>624.2063432190395</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31853,13 +31855,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>213.1625787491746</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
@@ -31996,7 +31998,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663306</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
         <v>699.5441750817575</v>
@@ -32072,16 +32074,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M15" t="n">
         <v>142.1340339220183</v>
@@ -32096,7 +32098,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>316.2462973459355</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
@@ -32224,40 +32226,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32266,7 +32268,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,28 +32311,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>531.8166820790238</v>
       </c>
       <c r="M18" t="n">
-        <v>245.8118639189576</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q18" t="n">
         <v>375.5996128485291</v>
@@ -32339,7 +32341,7 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32382,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32406,7 +32408,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32418,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,40 +32463,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32503,7 +32505,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32552,31 +32554,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>164.9290651940682</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32619,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32643,7 +32645,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
@@ -32655,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,19 +32791,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>409.0029787211721</v>
       </c>
       <c r="N24" t="n">
-        <v>428.7353800421384</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32813,13 +32815,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33029,34 +33031,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>316.2462973459351</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>153.8606640989137</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,13 +33253,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33266,34 +33268,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>250.1723312270667</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>152.0754244981388</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>300.768778117042</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>351.1157147121638</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>253.6713445157994</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>237.3557891543625</v>
       </c>
       <c r="P42" t="n">
-        <v>437.853104691376</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159414</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>295.9743940159484</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609565</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127288</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35489,10 +35491,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>485.6519634391653</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35501,13 +35503,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>73.18080466315305</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>37.00975247789211</v>
@@ -35644,7 +35646,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396443</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
         <v>479.454324036777</v>
@@ -35720,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35744,7 +35746,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>176.264523259914</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>37.00975247789211</v>
@@ -35878,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35957,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>393.2623022991496</v>
       </c>
       <c r="M18" t="n">
-        <v>103.6778299969392</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36051,7 +36053,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36115,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902405</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>22.33282074962379</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096402</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
         <v>394.3420143191315</v>
@@ -36288,7 +36290,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060455</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>266.8689447991538</v>
       </c>
       <c r="N24" t="n">
-        <v>297.3936679588052</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36458,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,25 +36679,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>176.2645232599136</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>8.181160134949776</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36916,25 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>110.1905571410452</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>6.39592053417488</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,22 +37153,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>169.4270660337087</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37387,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>213.2742757378048</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>122.3296324324661</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,22 +37864,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>94.75954470991805</v>
       </c>
       <c r="P42" t="n">
-        <v>303.8786972770457</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38101,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>161.9999866016181</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2119448.980976204</v>
+        <v>2115436.370962211</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>74.32262784155968</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>233.1592965985626</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247746</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
       </c>
       <c r="U3" t="n">
-        <v>225.787168396927</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -831,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>106.4735778903234</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>175.099233139738</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>108.5063800517385</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>271.9188307532925</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>94.57983363107971</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>20.95866062610894</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>147.2339392611577</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>226.0299399030541</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1296,13 +1296,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>109.2491435621236</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>148.3144404684711</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>20.25102067617261</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1539,7 +1539,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>62.36981422367011</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1767,19 +1767,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>125.8152577453148</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634816</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>57.02356321678175</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2016,13 +2016,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>51.36569740310325</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>174.7683347992599</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2478,10 +2478,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>101.9154861872847</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>32.27552175740387</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>134.3542165280278</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>137.9792024346624</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2964,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,10 +3006,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>13.03790159951642</v>
       </c>
       <c r="V31" t="n">
-        <v>61.97958965902472</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>100.988480008087</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>219.245038753228</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>70.04554881124335</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3666,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>73.78417491007316</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3714,10 +3714,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>210.340261657467</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>59.45282559760549</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3906,7 +3906,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4143,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>41.16673120696609</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,10 +4191,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>18.16423677622388</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1986.901740067215</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.939223126803</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
         <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528559</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389511</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4327,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136264</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.7846764101</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2961.7846764101</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2609.016021139986</v>
+        <v>2349.670679994633</v>
       </c>
       <c r="X2" t="n">
-        <v>2609.016021139986</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="Y2" t="n">
-        <v>2373.501580131337</v>
+        <v>1976.204921733553</v>
       </c>
     </row>
     <row r="3">
@@ -4385,70 +4385,70 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.82830229719</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>417.6040489720644</v>
+        <v>2736.259446030106</v>
       </c>
       <c r="C4" t="n">
-        <v>417.6040489720644</v>
+        <v>2736.259446030106</v>
       </c>
       <c r="D4" t="n">
-        <v>417.6040489720644</v>
+        <v>2736.259446030106</v>
       </c>
       <c r="E4" t="n">
-        <v>417.6040489720644</v>
+        <v>2736.259446030106</v>
       </c>
       <c r="F4" t="n">
-        <v>417.6040489720644</v>
+        <v>2736.259446030106</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>2568.556609404825</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>2568.556609404825</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218338</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962279</v>
+        <v>2483.05368576061</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372931</v>
+        <v>2581.36454002828</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596503</v>
+        <v>2737.074383950638</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588479</v>
+        <v>2904.506865249835</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886953</v>
+        <v>3075.815702279683</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068849</v>
+        <v>3213.734051497872</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596435</v>
+        <v>3312.685054250631</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181842</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757121</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S4" t="n">
-        <v>639.3706644025384</v>
+        <v>3133.919937435998</v>
       </c>
       <c r="T4" t="n">
-        <v>417.6040489720644</v>
+        <v>3133.919937435998</v>
       </c>
       <c r="U4" t="n">
-        <v>417.6040489720644</v>
+        <v>3133.919937435998</v>
       </c>
       <c r="V4" t="n">
-        <v>417.6040489720644</v>
+        <v>3133.919937435998</v>
       </c>
       <c r="W4" t="n">
-        <v>417.6040489720644</v>
+        <v>3133.919937435998</v>
       </c>
       <c r="X4" t="n">
-        <v>417.6040489720644</v>
+        <v>2957.052025173636</v>
       </c>
       <c r="Y4" t="n">
-        <v>417.6040489720644</v>
+        <v>2736.259446030106</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1918.208919851714</v>
+        <v>2085.807325826218</v>
       </c>
       <c r="C5" t="n">
-        <v>1549.246402911303</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1190.980704304552</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>805.192451706308</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>798.2469509571046</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>383.174500802101</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176916</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W5" t="n">
-        <v>2678.274518176916</v>
+        <v>2862.546497866152</v>
       </c>
       <c r="X5" t="n">
-        <v>2304.808759915836</v>
+        <v>2862.546497866152</v>
       </c>
       <c r="Y5" t="n">
-        <v>2304.808759915836</v>
+        <v>2472.40716589034</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811077</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999807</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387296</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.918960533274</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601591</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
@@ -4643,16 +4643,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4676,22 +4676,22 @@
         <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>87.68248070098031</v>
+        <v>920.887005818185</v>
       </c>
       <c r="C7" t="n">
-        <v>87.68248070098031</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D7" t="n">
-        <v>87.68248070098031</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
-        <v>87.68248070098031</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>87.68248070098031</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G7" t="n">
-        <v>87.68248070098031</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962279</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588479</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886953</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068849</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596435</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181842</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181842</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181842</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181842</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U7" t="n">
-        <v>631.7841389438278</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V7" t="n">
-        <v>377.0996507379409</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W7" t="n">
-        <v>87.68248070098031</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X7" t="n">
-        <v>87.68248070098031</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y7" t="n">
-        <v>87.68248070098031</v>
+        <v>920.887005818185</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2303.170539913434</v>
+        <v>1381.278680221567</v>
       </c>
       <c r="C8" t="n">
-        <v>1934.208022973022</v>
+        <v>1012.316163281155</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>654.0504646744046</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>268.2622120761603</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912086</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.60582160917</v>
@@ -4846,10 +4846,10 @@
         <v>2531.48361052258</v>
       </c>
       <c r="X8" t="n">
-        <v>2303.170539913434</v>
+        <v>2158.0178522615</v>
       </c>
       <c r="Y8" t="n">
-        <v>2303.170539913434</v>
+        <v>1767.878520285688</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>1072.936681635988</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>936.5735814686066</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>846.0716871064741</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>827.064395508012</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>920.7416649986293</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>1159.005863978976</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>1525.704024291641</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
-        <v>1972.980349513957</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>2446.503393068411</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2857.464672486466</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>3167.964263962568</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>481.6572696514548</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="C10" t="n">
-        <v>481.6572696514548</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D10" t="n">
-        <v>331.5406302391191</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>331.5406302391191</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962279</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588479</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886953</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068849</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596435</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181842</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181842</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181842</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181842</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="V10" t="n">
-        <v>771.0744396884154</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="W10" t="n">
-        <v>481.6572696514548</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="X10" t="n">
-        <v>481.6572696514548</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="Y10" t="n">
-        <v>481.6572696514548</v>
+        <v>529.0179941377679</v>
       </c>
     </row>
     <row r="11">
@@ -5032,31 +5032,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L12" t="n">
-        <v>1058.183521551621</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M12" t="n">
-        <v>1655.562009178173</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N12" t="n">
-        <v>2283.159972732779</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>950.1865537761979</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>613.6374994204285</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>465.7244058380354</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854706</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1398.968683817745</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>1170.979132919728</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>950.1865537761979</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="14">
@@ -5260,10 +5260,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5275,7 +5275,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
@@ -5363,22 +5363,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400712</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D16" t="n">
-        <v>513.8536007400712</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578602</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,64 +5503,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803939</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>634.560372056552</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1231.938859683104</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>695.5020655703119</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C19" t="n">
-        <v>637.9025067654818</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654818</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851784</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X19" t="n">
-        <v>916.294644713842</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703119</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="20">
@@ -5746,58 +5746,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192559</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3342.53722908186</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>3173.601046153953</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>3023.484406741617</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159224</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661314</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376194</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4623.787448650996</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4404.185983673938</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>4227.652312159534</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>3972.967823953647</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3972.967823953647</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3744.978273055629</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>3524.185693912099</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5977,61 +5977,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2978.516248701936</v>
+        <v>950.7540666811332</v>
       </c>
       <c r="C25" t="n">
-        <v>2978.516248701936</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D25" t="n">
-        <v>2875.571313159224</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E25" t="n">
-        <v>2875.571313159224</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661314</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376194</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650996</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.932614305901</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.331149328842</v>
+        <v>2414.36154645157</v>
       </c>
       <c r="U25" t="n">
-        <v>3932.25592267304</v>
+        <v>2125.286319795768</v>
       </c>
       <c r="V25" t="n">
-        <v>3677.571434467153</v>
+        <v>1870.601831589881</v>
       </c>
       <c r="W25" t="n">
-        <v>3388.154264430193</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="X25" t="n">
-        <v>3160.164713532175</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y25" t="n">
-        <v>3160.164713532175</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="26">
@@ -6214,31 +6214,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6265,10 +6265,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1336.167399417937</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1888.077129657224</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2311.700279152292</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2544.961939527175</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6411,25 +6411,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2311.25175375397</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.96308358026</v>
+        <v>2311.25175375397</v>
       </c>
       <c r="U28" t="n">
-        <v>2157.887856924458</v>
+        <v>2022.176527098168</v>
       </c>
       <c r="V28" t="n">
-        <v>2018.514925172274</v>
+        <v>1767.492038892281</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1478.07486885532</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>1250.085317957303</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="29">
@@ -6445,31 +6445,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6481,31 +6481,31 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1337.934786622704</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1889.844516861991</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2313.467666357059</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2546.729326731942</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>705.9324428257312</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6654,19 +6654,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1964.291482935239</v>
       </c>
       <c r="V31" t="n">
-        <v>1625.780207734479</v>
+        <v>1709.606994729352</v>
       </c>
       <c r="W31" t="n">
-        <v>1336.363037697518</v>
+        <v>1420.189824692392</v>
       </c>
       <c r="X31" t="n">
-        <v>1108.373486799501</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y31" t="n">
-        <v>887.5809076559709</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="32">
@@ -6682,40 +6682,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6785,19 +6785,19 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3093.254426444652</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C34" t="n">
-        <v>2924.318243516745</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D34" t="n">
-        <v>2774.20160410441</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E34" t="n">
-        <v>2626.288510522017</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>2479.398563024106</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>2479.398563024106</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>4521.778882986261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>4302.177418009202</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U34" t="n">
-        <v>4013.1021913534</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V34" t="n">
-        <v>4013.1021913534</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W34" t="n">
-        <v>3723.68502131644</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X34" t="n">
-        <v>3495.695470418422</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y34" t="n">
-        <v>3274.902891274892</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="35">
@@ -6928,16 +6928,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6946,13 +6946,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>2592.376702893873</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>3087.702309109632</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>3087.702309109632</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>3715.300272664238</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>4267.210002903525</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>951.777212765616</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>782.8410298377091</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>632.7243904253734</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7125,22 +7125,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2126.309465880251</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2126.309465880251</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>733.4550657171301</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C40" t="n">
-        <v>564.5188827892232</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D40" t="n">
-        <v>564.5188827892232</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E40" t="n">
-        <v>489.9894131830887</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
         <v>343.0994656851783</v>
@@ -7362,22 +7362,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487567</v>
+        <v>1984.597634722449</v>
       </c>
       <c r="U40" t="n">
-        <v>1907.987318831765</v>
+        <v>1984.597634722449</v>
       </c>
       <c r="V40" t="n">
-        <v>1653.302830625878</v>
+        <v>1729.913146516562</v>
       </c>
       <c r="W40" t="n">
-        <v>1363.885660588917</v>
+        <v>1440.495976479601</v>
       </c>
       <c r="X40" t="n">
-        <v>1135.8961096909</v>
+        <v>1212.506425581584</v>
       </c>
       <c r="Y40" t="n">
-        <v>915.1035305473698</v>
+        <v>991.7138464380538</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2946.364478946742</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>2777.428296018835</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>2627.3116566065</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>2479.398563024106</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>2479.398563024106</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>2479.398563024106</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>3744.61713821475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>3455.19996817779</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>3227.210417279773</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>3006.417838136243</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7733,22 +7733,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1804.131916132773</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>2356.04164637206</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>784.5811134804959</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C46" t="n">
-        <v>615.644930552589</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D46" t="n">
-        <v>465.5282911402533</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E46" t="n">
-        <v>317.6151975578602</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578602</v>
+        <v>302.5953191078052</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>135.3992198226851</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7839,19 +7839,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1959.113366595131</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1704.428878389244</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W46" t="n">
-        <v>1415.011708352283</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X46" t="n">
-        <v>1187.022157454266</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y46" t="n">
-        <v>966.2295783107356</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
   </sheetData>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>146.9958004224552</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>83.05123379926113</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23655,19 +23655,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>117.6820817884491</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>39.70888054695402</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>110.2232578818461</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23904,10 +23904,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,19 +24177,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>111.4161395899842</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24366,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>46.69998683092763</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>185.1299285698844</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>46.6720694736168</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,10 +24894,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>273.1465727897277</v>
       </c>
       <c r="V31" t="n">
-        <v>190.1580536648033</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>80.03780599355764</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>32.89260457059996</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>147.3599015160449</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>72.64978773649601</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25602,10 +25602,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>7.065188669821225</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>120.3791545843318</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25794,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,7 +25803,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>99.1279816392578</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>268.0202376130202</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>841963.9198425522</v>
+        <v>841963.919842552</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>841963.919842552</v>
+        <v>841963.9198425522</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>841963.919842552</v>
+        <v>841963.9198425522</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>841963.9198425522</v>
+        <v>841963.9198425519</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>841963.919842552</v>
+        <v>841963.9198425522</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>841963.919842552</v>
+        <v>841963.9198425522</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>841963.919842552</v>
+        <v>841963.9198425519</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>841963.9198425519</v>
+        <v>841963.919842552</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>841963.919842552</v>
+        <v>841963.9198425519</v>
       </c>
     </row>
     <row r="16">
@@ -26316,7 +26316,7 @@
         <v>595255.2831516053</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516052</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="D2" t="n">
         <v>595255.2831516056</v>
@@ -26325,19 +26325,19 @@
         <v>585181.2847752543</v>
       </c>
       <c r="F2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="G2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="H2" t="n">
         <v>585181.2847752544</v>
-      </c>
-      <c r="G2" t="n">
-        <v>585181.2847752541</v>
-      </c>
-      <c r="H2" t="n">
-        <v>585181.2847752541</v>
       </c>
       <c r="I2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="J2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="K2" t="n">
         <v>585181.2847752544</v>
@@ -26349,7 +26349,7 @@
         <v>585181.2847752544</v>
       </c>
       <c r="N2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="O2" t="n">
         <v>585181.2847752543</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.781995812663809e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.094354047381785e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.7441040527</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.7441040526</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405263</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="G4" t="n">
-        <v>15436.64000687962</v>
+        <v>15436.64000687973</v>
       </c>
       <c r="H4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687972</v>
       </c>
       <c r="I4" t="n">
         <v>15436.64000687967</v>
@@ -26444,10 +26444,10 @@
         <v>15436.64000687967</v>
       </c>
       <c r="K4" t="n">
-        <v>15436.64000687973</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="L4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="M4" t="n">
         <v>15436.64000687967</v>
@@ -26456,10 +26456,10 @@
         <v>15436.64000687967</v>
       </c>
       <c r="O4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="P4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
     </row>
     <row r="5">
@@ -26484,7 +26484,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-935020.1472414326</v>
+        <v>-935020.1472414334</v>
       </c>
       <c r="C6" t="n">
-        <v>393724.5984861593</v>
+        <v>393724.5984861598</v>
       </c>
       <c r="D6" t="n">
-        <v>393724.5984861597</v>
+        <v>393724.5984861598</v>
       </c>
       <c r="E6" t="n">
-        <v>143209.6531371119</v>
+        <v>142862.2738827554</v>
       </c>
       <c r="F6" t="n">
-        <v>468622.1149444676</v>
+        <v>468274.7356901104</v>
       </c>
       <c r="G6" t="n">
-        <v>468622.1149444669</v>
+        <v>468274.7356901106</v>
       </c>
       <c r="H6" t="n">
-        <v>468622.1149444673</v>
+        <v>468274.7356901107</v>
       </c>
       <c r="I6" t="n">
-        <v>468622.114944468</v>
+        <v>468274.7356901107</v>
       </c>
       <c r="J6" t="n">
-        <v>251090.9125471902</v>
+        <v>250743.5332928329</v>
       </c>
       <c r="K6" t="n">
-        <v>468622.1149444677</v>
+        <v>468274.7356901107</v>
       </c>
       <c r="L6" t="n">
-        <v>468622.1149444675</v>
+        <v>468274.7356901105</v>
       </c>
       <c r="M6" t="n">
-        <v>383567.0870089557</v>
+        <v>383219.7077545988</v>
       </c>
       <c r="N6" t="n">
-        <v>468622.1149444676</v>
+        <v>468274.7356901105</v>
       </c>
       <c r="O6" t="n">
-        <v>468622.1149444674</v>
+        <v>468274.7356901105</v>
       </c>
       <c r="P6" t="n">
-        <v>468622.1149444676</v>
+        <v>468274.7356901107</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26804,13 +26804,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402292</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>274.9183408758533</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>153.078642057491</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27514,7 +27514,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27551,10 +27551,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>59.55223036870487</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>50.61042224929915</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>256.766511719269</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,13 +27627,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>22.68893363402805</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,25 +27776,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>72.66698746754813</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>123.7963542882118</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27830,13 +27830,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>259.6421064805537</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>143.7011607754149</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,13 +28016,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>110.2998057140456</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>103.8232028553569</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28563,13 +28563,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28800,7 +28800,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29580,7 +29580,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987504</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,16 +31837,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>624.2063432190395</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31855,16 +31855,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>549.9198891312103</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32083,25 +32083,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>531.8166820790238</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067228</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>164.9290651940682</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32797,13 +32797,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>409.0029787211721</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32812,7 +32812,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32943,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33022,34 +33022,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>153.8606640989137</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33265,7 +33265,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33274,19 +33274,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>152.0754244981388</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33505,22 +33505,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>300.768778117042</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33733,28 +33733,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>351.1157147121638</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33970,13 +33970,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33988,16 +33988,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>134.7284881171895</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34216,7 +34216,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34225,13 +34225,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>237.3557891543625</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34453,25 +34453,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>295.9743940159484</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966696</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014211</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966696</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014211</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127288</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966696</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014211</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>485.6519634391653</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35503,16 +35503,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>407.3236446867659</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35731,25 +35731,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>393.2623022991496</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236316905</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>22.33282074962379</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36445,13 +36445,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>266.8689447991538</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>8.181160134949776</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36922,19 +36922,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>6.39592053417488</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37153,22 +37153,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>169.4270660337087</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37381,28 +37381,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>213.2742757378048</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37636,16 +37636,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,7 +37864,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,13 +37873,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>94.75954470991805</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38101,25 +38101,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>161.9999866016181</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2115436.370962211</v>
+        <v>2117196.901264998</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9734589.108662385</v>
+        <v>9734589.108662384</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>4.792004777349866</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>74.32262784155968</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -806,7 +806,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>205.6826957773032</v>
       </c>
     </row>
     <row r="4">
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>175.099233139738</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>203.7029035467944</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>108.5063800517385</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>116.9388157418496</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>94.57983363107971</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>54.45803047044427</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>147.2339392611577</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>10.92172565345345</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>181.9348232923727</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>109.2491435621236</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>203.7029035467953</v>
       </c>
     </row>
     <row r="11">
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1426,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1539,13 +1539,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>62.36981422367011</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>69.8286381302723</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1773,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>125.8152577453148</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>220.4545102853546</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1849,10 +1849,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>51.36569740310325</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428169</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2481,13 +2481,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T25" t="n">
-        <v>32.27552175740387</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2715,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>134.3542165280278</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>91.89996056624796</v>
       </c>
       <c r="U31" t="n">
-        <v>13.03790159951642</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3082,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3195,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>53.11937003877868</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>219.245038753228</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>122.6028762599951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3666,10 +3666,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>210.340261657467</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3906,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>180.438871079516</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>41.16673120696609</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,10 +4191,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1976.204921733553</v>
+        <v>1303.529887077737</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4351,7 +4351,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2349.670679994633</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>1976.204921733553</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1976.204921733553</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4385,73 +4385,73 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927783</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
         <v>1109.759191501177</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2736.259446030106</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C4" t="n">
-        <v>2736.259446030106</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D4" t="n">
-        <v>2736.259446030106</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E4" t="n">
-        <v>2736.259446030106</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>2736.259446030106</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>2568.556609404825</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>2568.556609404825</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>2483.05368576061</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K4" t="n">
-        <v>2581.36454002828</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>2737.074383950638</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M4" t="n">
-        <v>2904.506865249835</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N4" t="n">
-        <v>3075.815702279683</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O4" t="n">
-        <v>3213.734051497872</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P4" t="n">
-        <v>3312.685054250631</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S4" t="n">
-        <v>3133.919937435998</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T4" t="n">
-        <v>3133.919937435998</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U4" t="n">
-        <v>3133.919937435998</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V4" t="n">
-        <v>3133.919937435998</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W4" t="n">
-        <v>3133.919937435998</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X4" t="n">
-        <v>2957.052025173636</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y4" t="n">
-        <v>2736.259446030106</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2085.807325826218</v>
+        <v>1754.744438482647</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1754.744438482647</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1396.478739875897</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>1010.690487277653</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>599.7045824880452</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>184.6321323330416</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4579,7 +4579,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4588,7 +4588,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4603,16 +4603,16 @@
         <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136266</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W5" t="n">
-        <v>2862.546497866152</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X5" t="n">
-        <v>2862.546497866152</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="Y5" t="n">
-        <v>2472.40716589034</v>
+        <v>2141.344278546769</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>920.887005818185</v>
+        <v>290.4564109463977</v>
       </c>
       <c r="C7" t="n">
-        <v>825.3518203322459</v>
+        <v>121.5202280184908</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396067</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4734,43 +4734,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X7" t="n">
-        <v>920.887005818185</v>
+        <v>692.8974549201675</v>
       </c>
       <c r="Y7" t="n">
-        <v>920.887005818185</v>
+        <v>472.1048757766374</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1381.278680221567</v>
+        <v>1197.506131441393</v>
       </c>
       <c r="C8" t="n">
-        <v>1012.316163281155</v>
+        <v>828.5436145009811</v>
       </c>
       <c r="D8" t="n">
-        <v>654.0504646744046</v>
+        <v>470.2779158942306</v>
       </c>
       <c r="E8" t="n">
-        <v>268.2622120761603</v>
+        <v>84.48966329598635</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073141</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4828,28 +4828,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3031.542604356091</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136265</v>
+        <v>3031.542604356091</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792694</v>
+        <v>2700.479717012521</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.48361052258</v>
+        <v>2347.711061742406</v>
       </c>
       <c r="X8" t="n">
-        <v>2158.0178522615</v>
+        <v>1974.245303481326</v>
       </c>
       <c r="Y8" t="n">
-        <v>1767.878520285688</v>
+        <v>1584.105971505515</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>529.0179941377679</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C10" t="n">
-        <v>529.0179941377679</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962286</v>
+        <v>78.3348699696229</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S10" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T10" t="n">
-        <v>529.0179941377679</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U10" t="n">
-        <v>529.0179941377679</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V10" t="n">
-        <v>529.0179941377679</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="W10" t="n">
-        <v>529.0179941377679</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="X10" t="n">
-        <v>529.0179941377679</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="Y10" t="n">
-        <v>529.0179941377679</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5059,34 +5059,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5114,13 +5114,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K12" t="n">
         <v>429.5088224239596</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>763.7541388327643</v>
+        <v>945.402603663004</v>
       </c>
       <c r="C13" t="n">
-        <v>763.7541388327643</v>
+        <v>776.4664207350971</v>
       </c>
       <c r="D13" t="n">
-        <v>613.6374994204285</v>
+        <v>626.3497813227614</v>
       </c>
       <c r="E13" t="n">
-        <v>465.7244058380354</v>
+        <v>478.4366877403683</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>331.5467402424579</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>164.3506409573378</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5260,37 +5260,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5354,22 +5354,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.7541388327643</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C16" t="n">
-        <v>594.8179559048574</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D16" t="n">
-        <v>444.7013164925216</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E16" t="n">
-        <v>444.7013164925216</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>444.7013164925216</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1754.779756989948</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1754.779756989948</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704551</v>
+        <v>1465.362586952987</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806534</v>
+        <v>1237.37303605497</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.402603663004</v>
+        <v>1016.58045691144</v>
       </c>
     </row>
     <row r="17">
@@ -5497,7 +5497,7 @@
         <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5512,7 +5512,7 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111712</v>
@@ -5521,19 +5521,19 @@
         <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852254</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>814.4194208819168</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>664.3027814695811</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E19" t="n">
-        <v>516.389687887188</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F19" t="n">
-        <v>369.4997403892776</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000582</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5746,19 +5746,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
@@ -5770,34 +5770,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5904,10 +5904,10 @@
         <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5983,10 +5983,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>950.7540666811332</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>781.8178837532263</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2414.36154645157</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>2125.286319795768</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1870.601831589881</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1581.18466155292</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1353.195110654903</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>1132.402531511373</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6214,19 +6214,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075813</v>
@@ -6314,10 +6314,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>847.6442739835331</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2311.25175375397</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2311.25175375397</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2022.176527098168</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1767.492038892281</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1478.07486885532</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1250.085317957303</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1029.292738813773</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6445,37 +6445,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>789.7592298206043</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C31" t="n">
-        <v>620.8230468926974</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>470.7064074803617</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>322.7933138979686</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U31" t="n">
-        <v>1964.291482935239</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V31" t="n">
-        <v>1709.606994729352</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W31" t="n">
-        <v>1420.189824692392</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X31" t="n">
-        <v>1192.200273794374</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y31" t="n">
-        <v>971.4076946508441</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1016.58045691144</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C34" t="n">
-        <v>847.6442739835331</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711974</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>229.5592957321579</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>229.5592957321579</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>810.0653816078141</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>641.1291986799072</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>491.0125592675714</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1984.597634722449</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1984.597634722449</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1729.913146516562</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1440.495976479601</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1212.506425581584</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>991.7138464380538</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7408,10 +7408,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075813</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D43" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.655893893758</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1978.054428916699</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.979202260897</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="44">
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7739,7 +7739,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>768.5380889459582</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>599.6019060180513</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>449.4852666057155</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4852666057155</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>302.5953191078052</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>135.3992198226851</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7839,19 +7839,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1688.385853854706</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1398.968683817745</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1170.979132919728</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>950.1865537761979</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,13 +23427,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>83.05123379926113</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>70.46607471595159</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23466,7 +23466,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016493</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>39.70888054695402</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>65.72996410388953</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.2291039219422</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T25" t="n">
-        <v>185.1299285698844</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24603,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>46.6720694736168</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>125.5054897610403</v>
       </c>
       <c r="U31" t="n">
-        <v>273.1465727897277</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>87.17534280744522</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>32.89260457059996</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25554,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>7.065188669821225</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>46.45968844823102</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>0.5874149221286302</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>99.1279816392578</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26079,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>841963.919842552</v>
+        <v>841963.9198425519</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>841963.9198425522</v>
+        <v>841963.919842552</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>841963.9198425522</v>
+        <v>841963.919842552</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>841963.9198425522</v>
+        <v>841963.9198425519</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>841963.9198425522</v>
+        <v>841963.9198425519</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>841963.9198425522</v>
+        <v>841963.919842552</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>841963.919842552</v>
+        <v>841963.9198425519</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>841963.9198425519</v>
+        <v>841963.9198425522</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>841963.919842552</v>
+        <v>841963.9198425519</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>595255.2831516054</v>
+      </c>
+      <c r="C2" t="n">
         <v>595255.2831516053</v>
       </c>
-      <c r="C2" t="n">
-        <v>595255.2831516054</v>
-      </c>
       <c r="D2" t="n">
-        <v>595255.2831516056</v>
+        <v>595255.2831516055</v>
       </c>
       <c r="E2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="F2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="G2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="H2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="I2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="J2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="K2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="L2" t="n">
+        <v>585181.2847752547</v>
+      </c>
+      <c r="M2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="N2" t="n">
         <v>585181.2847752544</v>
-      </c>
-      <c r="L2" t="n">
-        <v>585181.2847752543</v>
-      </c>
-      <c r="M2" t="n">
-        <v>585181.2847752544</v>
-      </c>
-      <c r="N2" t="n">
-        <v>585181.2847752543</v>
       </c>
       <c r="O2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752547</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>93596.74410405257</v>
+      </c>
+      <c r="C4" t="n">
         <v>93596.74410405254</v>
       </c>
-      <c r="C4" t="n">
-        <v>93596.74410405252</v>
-      </c>
       <c r="D4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="F4" t="n">
         <v>15436.64000687967</v>
@@ -26435,7 +26435,7 @@
         <v>15436.64000687973</v>
       </c>
       <c r="H4" t="n">
-        <v>15436.64000687972</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="I4" t="n">
         <v>15436.64000687967</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-935020.1472414334</v>
+        <v>-935020.1472414328</v>
       </c>
       <c r="C6" t="n">
-        <v>393724.5984861598</v>
+        <v>393724.5984861592</v>
       </c>
       <c r="D6" t="n">
-        <v>393724.5984861598</v>
+        <v>393724.5984861595</v>
       </c>
       <c r="E6" t="n">
-        <v>142862.2738827554</v>
+        <v>143174.915211677</v>
       </c>
       <c r="F6" t="n">
-        <v>468274.7356901104</v>
+        <v>468587.3770190319</v>
       </c>
       <c r="G6" t="n">
-        <v>468274.7356901106</v>
+        <v>468587.377019032</v>
       </c>
       <c r="H6" t="n">
-        <v>468274.7356901107</v>
+        <v>468587.377019032</v>
       </c>
       <c r="I6" t="n">
-        <v>468274.7356901107</v>
+        <v>468587.3770190319</v>
       </c>
       <c r="J6" t="n">
-        <v>250743.5332928329</v>
+        <v>251056.1746217546</v>
       </c>
       <c r="K6" t="n">
-        <v>468274.7356901107</v>
+        <v>468587.377019032</v>
       </c>
       <c r="L6" t="n">
-        <v>468274.7356901105</v>
+        <v>468587.3770190321</v>
       </c>
       <c r="M6" t="n">
-        <v>383219.7077545988</v>
+        <v>383532.3490835202</v>
       </c>
       <c r="N6" t="n">
-        <v>468274.7356901105</v>
+        <v>468587.3770190319</v>
       </c>
       <c r="O6" t="n">
-        <v>468274.7356901105</v>
+        <v>468587.3770190318</v>
       </c>
       <c r="P6" t="n">
-        <v>468274.7356901107</v>
+        <v>468587.3770190321</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>377.9418368861307</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>274.9183408758533</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27526,7 +27526,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
     </row>
     <row r="4">
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>50.61042224929915</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>14.88174980530036</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>256.766511719269</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>177.6689486454708</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27675,7 +27675,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27773,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>72.66698746754813</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>94.15744254776808</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>259.6421064805537</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>21.98314684724741</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>110.2998057140456</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>14.88174980529945</v>
       </c>
     </row>
     <row r="11">
@@ -28104,7 +28104,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28298,7 +28298,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>-4.713266813875332e-12</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -28569,10 +28569,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28800,7 +28800,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -32074,10 +32074,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32469,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32943,13 +32943,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L26" t="n">
         <v>867.846407116256</v>
@@ -33034,13 +33034,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33207,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33909,7 +33909,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
         <v>790.8204499236507</v>
@@ -34128,13 +34128,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34459,10 +34459,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014223</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M10" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36591,13 +36591,13 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
@@ -36682,13 +36682,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37557,7 +37557,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
@@ -37776,13 +37776,13 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38107,10 +38107,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
